--- a/ivcurves/ivmeasurements.xlsx
+++ b/ivcurves/ivmeasurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rfguerreros/Documents/Academic/Purdue/purdue_laser_box/ivcurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F802C2-0230-724F-A598-1719D5CCDB30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B94E3-7953-7149-B341-18ED4C55EFE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="2" xr2:uid="{E0E1EABF-E6E8-FC46-B602-A7450A7874B4}"/>
   </bookViews>
@@ -269,6 +269,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,9 +284,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,18 +612,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -650,12 +650,12 @@
       <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960852DC-E964-B64F-BBEE-F444556B4AD5}">
   <dimension ref="C2:X148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,25 +2333,26 @@
     <col min="3" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="8" width="21.6640625" customWidth="1"/>
+    <col min="10" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="T2" s="11" t="s">
+      <c r="H2" s="15"/>
+      <c r="T2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="W2" s="9" t="s">
+      <c r="U2" s="15"/>
+      <c r="W2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -2748,13 +2749,13 @@
       <c r="H18" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="T18" s="6">
         <v>140</v>
       </c>
@@ -2781,19 +2782,19 @@
       <c r="H19" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="P19" t="s">
@@ -2828,19 +2829,19 @@
       <c r="H20" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="11">
         <v>0</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P20" t="s">
@@ -2875,19 +2876,19 @@
       <c r="H21" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="11">
         <v>5</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="11">
         <v>0.04</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P21" t="s">
@@ -2922,19 +2923,19 @@
       <c r="H22" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="11">
         <v>10</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="11">
         <v>4.7E-2</v>
       </c>
       <c r="T22" s="6">
@@ -2963,17 +2964,17 @@
       <c r="H23" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="11">
         <v>15</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="11">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="11">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="T23" s="6">
@@ -3002,19 +3003,19 @@
       <c r="H24" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="11">
         <v>20</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="11">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="11">
         <v>7.8E-2</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="T24" s="6">
@@ -3043,19 +3044,19 @@
       <c r="H25" s="3">
         <v>0.115</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="11">
         <v>25</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="11">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="11">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="T25" s="6">
@@ -3084,19 +3085,19 @@
       <c r="H26" s="3">
         <v>0.115</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="11">
         <v>30</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="T26" s="6">
@@ -3125,19 +3126,19 @@
       <c r="H27" s="3">
         <v>0.115</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="11">
         <v>32</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="11">
         <v>0.104</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="11">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="T27" s="6">
@@ -3166,19 +3167,19 @@
       <c r="H28" s="3">
         <v>0.115</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="11">
         <v>34</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="11">
         <v>0.106</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="T28" s="6">
@@ -3207,19 +3208,19 @@
       <c r="H29" s="3">
         <v>0.115</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="11">
         <v>36</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="11">
         <v>0.109</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="11">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="11">
         <v>0.104</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="11">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="T29" s="6">
@@ -3248,19 +3249,19 @@
       <c r="H30" s="3">
         <v>0.115</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="11">
         <v>38</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="11">
         <v>0.111</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="11">
         <v>0.1</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="11">
         <v>0.106</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="11">
         <v>0.10100000000000001</v>
       </c>
       <c r="T30" s="6">
@@ -3289,19 +3290,19 @@
       <c r="H31" s="3">
         <v>0.115</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="11">
         <v>40</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="11">
         <v>0.113</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="11">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="11">
         <v>0.108</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="11">
         <v>0.10299999999999999</v>
       </c>
       <c r="T31" s="6">
@@ -3330,19 +3331,19 @@
       <c r="H32" s="3">
         <v>0.115</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="11">
         <v>41</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="11">
         <v>0.113</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="11">
         <v>0.104</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="11">
         <v>0.109</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="11">
         <v>0.104</v>
       </c>
       <c r="T32" s="6">
@@ -3371,19 +3372,19 @@
       <c r="H33" s="3">
         <v>0.115</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="11">
         <v>42</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="11">
         <v>0.114</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="11">
         <v>0.105</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="11">
         <v>0.11</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="11">
         <v>0.105</v>
       </c>
       <c r="T33" s="6">
@@ -3412,19 +3413,19 @@
       <c r="H34" s="3">
         <v>0.115</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="11">
         <v>45</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="11">
         <v>0.108</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="11">
         <v>0.112</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="11">
         <v>0.108</v>
       </c>
       <c r="T34" s="6">
@@ -3447,19 +3448,19 @@
       <c r="H35" s="3">
         <v>0.115</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="11">
         <v>50</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="11">
         <v>0.11799999999999999</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="11">
         <v>0.112</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="11">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="11">
         <v>0.112</v>
       </c>
       <c r="T35" s="6"/>
@@ -3467,7 +3468,7 @@
       <c r="W35" s="3">
         <v>310</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X35" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3478,19 +3479,19 @@
       <c r="H36" s="3">
         <v>0.115</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="11">
         <v>52</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="11">
         <v>0.113</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="11">
         <v>0.113</v>
       </c>
       <c r="T36" s="6"/>
@@ -3498,7 +3499,7 @@
       <c r="W36" s="3">
         <v>320</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X36" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3509,19 +3510,19 @@
       <c r="H37" s="3">
         <v>0.115</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="11">
         <v>54</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="11">
         <v>0.12</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="11">
         <v>0.114</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="11">
         <v>0.11799999999999999</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="11">
         <v>0.114</v>
       </c>
       <c r="T37" s="6"/>
@@ -3529,7 +3530,7 @@
       <c r="W37" s="3">
         <v>330</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X37" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3546,19 +3547,19 @@
       <c r="H38" s="3">
         <v>0.115</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="11">
         <v>56</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="11">
         <v>0.121</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="11">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="11">
         <v>0.11600000000000001</v>
       </c>
       <c r="T38" s="6"/>
@@ -3566,7 +3567,7 @@
       <c r="W38" s="3">
         <v>340</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X38" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3583,19 +3584,19 @@
       <c r="H39" s="3">
         <v>0.115</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="11">
         <v>58</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="11">
         <v>0.122</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="11">
         <v>0.12</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="11">
         <v>0.11700000000000001</v>
       </c>
       <c r="T39" s="6"/>
@@ -3603,7 +3604,7 @@
       <c r="W39" s="3">
         <v>350</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X39" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3620,19 +3621,19 @@
       <c r="H40" s="3">
         <v>0.115</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="11">
         <v>60</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="11">
         <v>0.123</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="11">
         <v>0.11799999999999999</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="11">
         <v>0.121</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="11">
         <v>0.11799999999999999</v>
       </c>
       <c r="T40" s="6"/>
@@ -3640,7 +3641,7 @@
       <c r="W40" s="3">
         <v>360</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X40" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
@@ -3657,19 +3658,19 @@
       <c r="H41" s="3">
         <v>0.115</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="11">
         <v>62</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="11">
         <v>0.124</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="11">
         <v>0.122</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="11">
         <v>0.11899999999999999</v>
       </c>
       <c r="T41" s="6"/>
@@ -3689,19 +3690,19 @@
       <c r="H42" s="3">
         <v>0.115</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="11">
         <v>65</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="11">
         <v>0.125</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="11">
         <v>0.12</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="11">
         <v>0.123</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="11">
         <v>0.12</v>
       </c>
       <c r="T42" s="6"/>
@@ -3721,19 +3722,19 @@
       <c r="H43" s="3">
         <v>0.115</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="11">
         <v>70</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="11">
         <v>0.126</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="11">
         <v>0.122</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="11">
         <v>0.125</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="11">
         <v>0.122</v>
       </c>
       <c r="T43" s="6"/>
@@ -3747,19 +3748,19 @@
       <c r="H44" s="3">
         <v>0.115</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="11">
         <v>72</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="11">
         <v>0.127</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="11">
         <v>0.123</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="11">
         <v>0.126</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="11">
         <v>0.123</v>
       </c>
       <c r="T44" s="6"/>
@@ -3773,19 +3774,19 @@
       <c r="H45" s="3">
         <v>0.115</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="11">
         <v>74</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="11">
         <v>0.128</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="11">
         <v>0.124</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="11">
         <v>0.126</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="11">
         <v>0.124</v>
       </c>
       <c r="T45" s="6"/>
@@ -3799,19 +3800,19 @@
       <c r="H46" s="3">
         <v>0.115</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="11">
         <v>76</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="11">
         <v>0.128</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="11">
         <v>0.125</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="11">
         <v>0.127</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="11">
         <v>0.125</v>
       </c>
       <c r="T46" s="6"/>
@@ -3825,19 +3826,19 @@
       <c r="H47" s="3">
         <v>0.115</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="11">
         <v>78</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="11">
         <v>0.129</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="11">
         <v>0.125</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="11">
         <v>0.127</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="11">
         <v>0.125</v>
       </c>
       <c r="T47" s="6"/>
@@ -3850,19 +3851,19 @@
       <c r="H48" s="3">
         <v>0.115</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="11">
         <v>80</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="11">
         <v>0.129</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="11">
         <v>0.126</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="11">
         <v>0.128</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="11">
         <v>0.126</v>
       </c>
       <c r="T48" s="6"/>
@@ -3875,19 +3876,19 @@
       <c r="H49" s="3">
         <v>0.115</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="11">
         <v>82</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="11">
         <v>0.13</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="11">
         <v>0.127</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="11">
         <v>0.128</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="11">
         <v>0.127</v>
       </c>
       <c r="T49" s="6"/>
@@ -3897,51 +3898,51 @@
       <c r="G50" s="6">
         <v>460</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="9">
         <v>0.115</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="11">
         <v>84</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="11">
         <v>0.13</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="11">
         <v>0.127</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="11">
         <v>0.129</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="11">
         <v>0.127</v>
       </c>
       <c r="T50" s="6"/>
-      <c r="U50" s="13"/>
+      <c r="U50" s="9"/>
     </row>
     <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="G51" s="6">
         <v>470</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="9">
         <v>0.115</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="11">
         <v>86</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="11">
         <v>0.128</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="11">
         <v>0.129</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="11">
         <v>0.128</v>
       </c>
       <c r="T51" s="6"/>
-      <c r="U51" s="13"/>
+      <c r="U51" s="9"/>
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="G52" s="6">
@@ -3950,19 +3951,19 @@
       <c r="H52" s="3">
         <v>0.115</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="11">
         <v>88</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="11">
         <v>0.128</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="11">
         <v>0.13</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="11">
         <v>0.128</v>
       </c>
       <c r="T52" s="6"/>
@@ -3975,19 +3976,19 @@
       <c r="H53" s="3">
         <v>0.115</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="11">
         <v>90</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="11">
         <v>0.129</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="11">
         <v>0.13</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="11">
         <v>0.129</v>
       </c>
       <c r="T53" s="6"/>
@@ -4000,19 +4001,19 @@
       <c r="H54" s="3">
         <v>0.115</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="11">
         <v>95</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="11">
         <v>0.13</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="11">
         <v>0.13</v>
       </c>
       <c r="T54" s="6"/>
@@ -4025,19 +4026,19 @@
       <c r="H55" s="3">
         <v>0.115</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="11">
         <v>100</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="11">
         <v>0.13100000000000001</v>
       </c>
       <c r="T55" s="6"/>
@@ -4050,19 +4051,19 @@
       <c r="H56" s="3">
         <v>0.115</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="11">
         <v>105</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="11">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="11">
         <v>0.13300000000000001</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="11">
         <v>0.13200000000000001</v>
       </c>
       <c r="T56" s="6"/>
@@ -4075,67 +4076,67 @@
       <c r="H57" s="3">
         <v>0.114</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="11">
         <v>110</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="11">
         <v>0.13300000000000001</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="11">
         <v>0.13300000000000001</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="11">
         <v>0.13300000000000001</v>
       </c>
       <c r="T57" s="6"/>
       <c r="U57" s="3"/>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="J58" s="15">
+      <c r="J58" s="11">
         <v>115</v>
       </c>
-      <c r="K58" s="15">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="L58" s="15">
+      <c r="K58" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L58" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="11">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="J59" s="15">
+      <c r="J59" s="11">
         <v>120</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M59" s="15">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="N59" s="15">
+      <c r="M59" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N59" s="11">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="G60" s="11" t="s">
+      <c r="D60" s="15"/>
+      <c r="G60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="4" t="s">
@@ -4576,10 +4577,10 @@
       <c r="D93" s="7">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="15"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C94" s="6">
@@ -4793,7 +4794,7 @@
       <c r="C109" s="6">
         <v>470</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="9">
         <v>0.13500000000000001</v>
       </c>
       <c r="G109" s="6">
@@ -4891,7 +4892,7 @@
       <c r="C116" s="6">
         <v>540</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="10">
         <v>0.13500000000000001</v>
       </c>
       <c r="G116" s="6">
@@ -4905,7 +4906,7 @@
       <c r="C117" s="6">
         <v>550</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="10">
         <v>0.13500000000000001</v>
       </c>
       <c r="G117" s="6">
@@ -4919,7 +4920,7 @@
       <c r="C118" s="6">
         <v>560</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="10">
         <v>0.13500000000000001</v>
       </c>
       <c r="G118" s="6">
@@ -4933,7 +4934,7 @@
       <c r="C119" s="6">
         <v>570</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="10">
         <v>0.13500000000000001</v>
       </c>
       <c r="G119" s="6">
@@ -4947,7 +4948,7 @@
       <c r="C120" s="6">
         <v>580</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="10">
         <v>0.13400000000000001</v>
       </c>
       <c r="G120" s="6">
@@ -5099,13 +5100,13 @@
       <c r="G141" s="6">
         <v>460</v>
       </c>
-      <c r="H141" s="13"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G142" s="6">
         <v>470</v>
       </c>
-      <c r="H142" s="13"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G143" s="6">
